--- a/biology/Botanique/Pachystachys_spicata/Pachystachys_spicata.xlsx
+++ b/biology/Botanique/Pachystachys_spicata/Pachystachys_spicata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachystachys spicata  est une espèce de plante vivace du genre Pachystachys de la famille des Acanthaceae,
-En page 8 de leur premier volume de la « Flora Peruviana, et Chilensis »[1] , Hipólito Ruiz López et José Antonio Pavón l’ont décrite pour la première fois en latin, en 1798, sous le nom de Justicia spicata.
-En 1986, Dieter Carl Wasshausen l’a reclassifiée selon les principes de la systématique botanique moderne en page 175 du volume 99 de la publication Proceedings of the Biological Society of Washington [2] .
+En page 8 de leur premier volume de la « Flora Peruviana, et Chilensis » , Hipólito Ruiz López et José Antonio Pavón l’ont décrite pour la première fois en latin, en 1798, sous le nom de Justicia spicata.
+En 1986, Dieter Carl Wasshausen l’a reclassifiée selon les principes de la systématique botanique moderne en page 175 du volume 99 de la publication Proceedings of the Biological Society of Washington  .
 Il est originaire des régions tropicales d'Amérique (Brésil, Pérou, Amérique centrale).
 Il peut être utilisé comme arbuste ornemental.
 </t>
@@ -515,9 +527,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[3]   18 juin 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   18 juin 2012
 Justicia spicata Ruiz &amp; Pav., 1798 ,  Flora Peruviana et Chilensis Vol. 1
 Pachystachys asperula Nees, 1847, Prodromus Vol. 11
 Pachystachys latior Nees, 1847, Prodromus Vol. 11
